--- a/published-data/fonds-solidarite/fds-2020-12-29/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-12-29/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -23326,10 +23326,10 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>91525</v>
+        <v>91526</v>
       </c>
       <c r="D479" t="n">
-        <v>132673166</v>
+        <v>132674604</v>
       </c>
       <c r="E479" t="inlineStr">
         <is>
@@ -37054,10 +37054,10 @@
         </is>
       </c>
       <c r="C765" t="n">
-        <v>104027</v>
+        <v>104026</v>
       </c>
       <c r="D765" t="n">
-        <v>151663474</v>
+        <v>151662036</v>
       </c>
       <c r="E765" t="inlineStr">
         <is>
@@ -38446,10 +38446,10 @@
         </is>
       </c>
       <c r="C794" t="n">
-        <v>3289</v>
+        <v>3290</v>
       </c>
       <c r="D794" t="n">
-        <v>7419289</v>
+        <v>7423505</v>
       </c>
       <c r="E794" t="inlineStr">
         <is>
